--- a/Summary_For_Each_Volcano/Arc_Wide_Trends/Data_Availability_vs_Threat.xlsx
+++ b/Summary_For_Each_Volcano/Arc_Wide_Trends/Data_Availability_vs_Threat.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Summary_For_Each_Volcano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Summary_For_Each_Volcano\Arc_Wide_Trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768957EE-A13F-408D-9A47-8A64F0A51F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720EE350-0E74-4BBD-8AAC-F2C3817BD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="2" activeTab="2" xr2:uid="{3D1A9812-4834-4B24-BF0E-F6EF18322D1F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{3D1A9812-4834-4B24-BF0E-F6EF18322D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sorted" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4605,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DF1DC8-31D8-4C7C-990B-62EB6979D5CE}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4857,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>26</v>
@@ -5048,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>25</v>
